--- a/Bank_2020_06_12.xlsx
+++ b/Bank_2020_06_12.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$K$53</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$K$55</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="317">
   <si>
     <t>Timestamp</t>
   </si>
@@ -119,6 +119,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>OPP. GHELANI PETROL PUMP,</t>
     </r>
     <r>
@@ -214,6 +220,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>SURYAKIRAN COMPLEX,</t>
     </r>
     <r>
@@ -518,6 +530,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>Opp. Jithriya Hanuman, 80 Feet Road, Rajkot.</t>
     </r>
     <r>
@@ -728,6 +746,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>Nawanagar Bank Bhavan, Opp Pranami School, Hirji Mistri Road, Jamnagar</t>
     </r>
     <r>
@@ -863,6 +887,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">JAY COMPLEX NR. DELUXE CROSS ROAD </t>
     </r>
     <r>
@@ -962,6 +992,226 @@
   <si>
     <t>pragati_mjp@psbl.co.in</t>
   </si>
+  <si>
+    <t>ALTHAN BHATAR URBAN CO OP CREDIT SOCIETY LTD</t>
+  </si>
+  <si>
+    <t>ANAND APARTMENT,NEAR L.B.CINEMA,BOB ATM,BHATAR ROAD,SURAT-395017</t>
+  </si>
+  <si>
+    <t>MAYUR K MEHTA</t>
+  </si>
+  <si>
+    <t>jcjariwala@hotmail.com</t>
+  </si>
+  <si>
+    <t>THE KALUPUR COMMERCIAL CO OPERATIVE BANK LTD</t>
+  </si>
+  <si>
+    <t>KHOKHRA MAHEMDABAD</t>
+  </si>
+  <si>
+    <t>New Grain Market, Opp. Anupam Cinema, Khokhra Mahemdabad, Ahmedabad-380008</t>
+  </si>
+  <si>
+    <t>Hitesh Desai</t>
+  </si>
+  <si>
+    <t>khokhra@kalupurbank.com</t>
+  </si>
+  <si>
+    <t>VATVA</t>
+  </si>
+  <si>
+    <t>Plot No.1110, GIDC, Phase-3 F-Road, Nr.Abad Bakery, Vatva, Ahmedabad-382445</t>
+  </si>
+  <si>
+    <t>Sunil Rajput</t>
+  </si>
+  <si>
+    <t>vatva@kalupurbank.com</t>
+  </si>
+  <si>
+    <t>DRIVE IN ROAD</t>
+  </si>
+  <si>
+    <t>Kamdhenu Bhavan,opp. T.V.Tower, Drive-in Road, Ahmedabad-380054</t>
+  </si>
+  <si>
+    <t>Nitin Gupta</t>
+  </si>
+  <si>
+    <t>drivein@kalupurbank.com</t>
+  </si>
+  <si>
+    <t>VASNA</t>
+  </si>
+  <si>
+    <t>Nr. Ratnasagar Flat,Kesariyaji Char Rasta, Jivraj Mehta Hospital Road, Vasna, Ahmedabad-380007</t>
+  </si>
+  <si>
+    <t>Devendra Patel</t>
+  </si>
+  <si>
+    <t>vasna@kalupurbank.com</t>
+  </si>
+  <si>
+    <t>ANAND</t>
+  </si>
+  <si>
+    <t>Jay Tower, Amul Dairy Road, Anand, Dist : Anand-388001</t>
+  </si>
+  <si>
+    <t>Vyomesh Solanki</t>
+  </si>
+  <si>
+    <t>anand@kalupurbank.com</t>
+  </si>
+  <si>
+    <t>KHAMBHAT</t>
+  </si>
+  <si>
+    <t>Khambhat</t>
+  </si>
+  <si>
+    <t>NIJANANDA,NR. DR.COMPLEX, STATION ROAD, Khambhat Taluka: KHAMBHAT, DIST : ANAND-388620</t>
+  </si>
+  <si>
+    <t>Nirav Shah</t>
+  </si>
+  <si>
+    <t>khambhat@kalupurbank.com</t>
+  </si>
+  <si>
+    <t>TEXTILE MARKET</t>
+  </si>
+  <si>
+    <t>38-39, AJANTA SHOPPING CENTRE NEAR KINNARI CINEMA RING ROAD SURAT-395002</t>
+  </si>
+  <si>
+    <t>Dhruvit Patel</t>
+  </si>
+  <si>
+    <t>surat@kalupurbank.com</t>
+  </si>
+  <si>
+    <t>GANDHINAGAR</t>
+  </si>
+  <si>
+    <t>Gandhinagar</t>
+  </si>
+  <si>
+    <r>
+      <t>Sarva Vidyalaya Kelavani Mandal Sanchalit Chanchalben Mafatlal Patel College of Nursing, Civil Hospital Campu, Sector - 12,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Gandhinagar,382012</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t>Parin Modi</t>
+  </si>
+  <si>
+    <t>gandhinagar@kalupurbank.com</t>
+  </si>
+  <si>
+    <t>KATHWADA</t>
+  </si>
+  <si>
+    <t>PLOT NO - 545, DIVYA MANGAL ARCAD, KATHWADA GIDC, AHMEDABAD - 382430</t>
+  </si>
+  <si>
+    <t>Manoj Verma</t>
+  </si>
+  <si>
+    <t>kathwadabranch@kalupurbank.com</t>
+  </si>
+  <si>
+    <t>ANAND MAHAL ROAD</t>
+  </si>
+  <si>
+    <t>MADHAV COMPLEX, NEW RANCHHODNAGAR, OPP.PRIME ARCADE, ANAND MAHAL ROAD, ADAJAN,SURAT-395009</t>
+  </si>
+  <si>
+    <t>Printesh Sukhadiya</t>
+  </si>
+  <si>
+    <t>anandmahal@kalupurbank.com</t>
+  </si>
+  <si>
+    <t>GHATLODIYA</t>
+  </si>
+  <si>
+    <t>SHREEKUNJ SHOPPING CENTRE, NEAR VEER DAIRY, PRABHAT CHOWK, GHATLODIYA,Ahmedabad,380061</t>
+  </si>
+  <si>
+    <t>Tejash Shah</t>
+  </si>
+  <si>
+    <t>ghatlodiya@kalupurbank.com</t>
+  </si>
+  <si>
+    <t>JODHPUR</t>
+  </si>
+  <si>
+    <t>1 Ground floor,sachet - 4 building,preranatirth derasar road, jodhpur , Ahmedabad - 380015</t>
+  </si>
+  <si>
+    <t>Dhaval Patel</t>
+  </si>
+  <si>
+    <t>jodhpur@kalupurbank.com</t>
+  </si>
+  <si>
+    <t>SOUTH BOPAL</t>
+  </si>
+  <si>
+    <t>20-21, orchid center,infornt of safal parisal 1 ,near sobo center,south bopal,ahmedabad -58</t>
+  </si>
+  <si>
+    <t>Jaydeep Shah</t>
+  </si>
+  <si>
+    <t>southbopal@kalupurbank.com</t>
+  </si>
+  <si>
+    <t>NEW VASNA</t>
+  </si>
+  <si>
+    <t>Ground Floor, Tulsi parkview, Infornt of Popular Maruti Workshop, Behind G.B Shah college,New Vasna,Ahmedabad,380007</t>
+  </si>
+  <si>
+    <t>Hitendrasinh Rathore</t>
+  </si>
+  <si>
+    <t>newvasna@kalupurbank.com</t>
+  </si>
 </sst>
 </file>
 
@@ -970,8 +1220,8 @@
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="180" formatCode="dd/mm/yyyy\ hh:mm"/>
   </numFmts>
   <fonts count="22">
@@ -997,6 +1247,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -1004,14 +1261,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1033,7 +1291,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1047,55 +1305,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1111,9 +1323,41 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1126,15 +1370,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1149,7 +1399,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1161,13 +1495,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1185,43 +1519,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1233,7 +1543,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1245,67 +1555,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1317,19 +1573,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1361,71 +1611,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1447,6 +1634,60 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1455,12 +1696,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1469,143 +1719,143 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1617,10 +1867,17 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="180" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1945,16 +2202,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K55"/>
+  <dimension ref="A1:K70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="B77" sqref="B77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="26.8571428571429" customWidth="1"/>
-    <col min="2" max="2" width="65" customWidth="1"/>
+    <col min="2" max="2" width="51.8571428571429" customWidth="1"/>
     <col min="4" max="4" width="66.5714285714286" customWidth="1"/>
     <col min="5" max="5" width="28.8571428571429" customWidth="1"/>
     <col min="6" max="6" width="17.7142857142857" customWidth="1"/>
@@ -1965,7 +2222,7 @@
     <col min="11" max="11" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" spans="1:11">
+    <row r="1" spans="1:11">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1990,7 +2247,7 @@
       <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="7" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="2" t="s">
@@ -2000,7 +2257,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" ht="15.75" spans="1:11">
+    <row r="2" spans="1:11">
       <c r="A2" s="3">
         <v>44171.5414930556</v>
       </c>
@@ -2025,7 +2282,7 @@
       <c r="H2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="6">
+      <c r="I2" s="8">
         <v>9408597100</v>
       </c>
       <c r="J2" s="4" t="s">
@@ -2035,7 +2292,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" ht="15.75" spans="1:11">
+    <row r="3" spans="1:11">
       <c r="A3" s="3">
         <v>44171.5586921296</v>
       </c>
@@ -2060,7 +2317,7 @@
       <c r="H3" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="6">
+      <c r="I3" s="8">
         <v>9898321048</v>
       </c>
       <c r="J3" s="4" t="s">
@@ -2070,7 +2327,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" ht="15.75" spans="1:11">
+    <row r="4" spans="1:11">
       <c r="A4" s="3">
         <v>44171.561087963</v>
       </c>
@@ -2095,7 +2352,7 @@
       <c r="H4" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="I4" s="6">
+      <c r="I4" s="8">
         <v>8128653016</v>
       </c>
       <c r="J4" s="4" t="s">
@@ -2105,7 +2362,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" ht="15.75" spans="1:11">
+    <row r="5" spans="1:11">
       <c r="A5" s="3">
         <v>44171.5621875</v>
       </c>
@@ -2130,7 +2387,7 @@
       <c r="H5" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="I5" s="6">
+      <c r="I5" s="8">
         <v>8128653017</v>
       </c>
       <c r="J5" s="4" t="s">
@@ -2140,7 +2397,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" ht="15.75" spans="1:11">
+    <row r="6" spans="1:11">
       <c r="A6" s="3">
         <v>44171.6308680556</v>
       </c>
@@ -2165,7 +2422,7 @@
       <c r="H6" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="I6" s="6">
+      <c r="I6" s="8">
         <v>9824013570</v>
       </c>
       <c r="J6" s="4" t="s">
@@ -2175,7 +2432,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" ht="15.75" spans="1:11">
+    <row r="7" spans="1:11">
       <c r="A7" s="3">
         <v>44171.6596412037</v>
       </c>
@@ -2200,7 +2457,7 @@
       <c r="H7" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="I7" s="6">
+      <c r="I7" s="8">
         <v>9913711665</v>
       </c>
       <c r="J7" s="4" t="s">
@@ -2210,7 +2467,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" ht="15.75" spans="1:11">
+    <row r="8" spans="1:11">
       <c r="A8" s="3">
         <v>44171.6354513889</v>
       </c>
@@ -2235,7 +2492,7 @@
       <c r="H8" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="I8" s="6">
+      <c r="I8" s="8">
         <v>9825892233</v>
       </c>
       <c r="J8" s="4" t="s">
@@ -2245,7 +2502,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" ht="15.75" spans="1:11">
+    <row r="9" spans="1:11">
       <c r="A9" s="3">
         <v>44171.6535416667</v>
       </c>
@@ -2270,7 +2527,7 @@
       <c r="H9" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="I9" s="6">
+      <c r="I9" s="8">
         <v>9998214223</v>
       </c>
       <c r="J9" s="4" t="s">
@@ -2280,7 +2537,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" ht="15.75" spans="1:11">
+    <row r="10" spans="1:11">
       <c r="A10" s="3">
         <v>44171.6561342593</v>
       </c>
@@ -2305,7 +2562,7 @@
       <c r="H10" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="I10" s="6">
+      <c r="I10" s="8">
         <v>9925555004</v>
       </c>
       <c r="J10" s="4" t="s">
@@ -2315,7 +2572,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" ht="15.75" spans="1:11">
+    <row r="11" spans="1:11">
       <c r="A11" s="3">
         <v>44171.5204282407</v>
       </c>
@@ -2340,7 +2597,7 @@
       <c r="H11" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="I11" s="6">
+      <c r="I11" s="8">
         <v>8238485785</v>
       </c>
       <c r="J11" s="4" t="s">
@@ -2350,7 +2607,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" ht="15.75" spans="1:11">
+    <row r="12" spans="1:11">
       <c r="A12" s="3">
         <v>44171.4792361111</v>
       </c>
@@ -2375,7 +2632,7 @@
       <c r="H12" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="I12" s="6">
+      <c r="I12" s="8">
         <v>9979847193</v>
       </c>
       <c r="J12" s="4" t="s">
@@ -2385,7 +2642,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" ht="15.75" spans="1:11">
+    <row r="13" spans="1:11">
       <c r="A13" s="3">
         <v>44171.4823611111</v>
       </c>
@@ -2410,7 +2667,7 @@
       <c r="H13" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="I13" s="6">
+      <c r="I13" s="8">
         <v>9979847193</v>
       </c>
       <c r="J13" s="4" t="s">
@@ -2420,7 +2677,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" ht="15.75" spans="1:11">
+    <row r="14" spans="1:11">
       <c r="A14" s="3">
         <v>44171.6250810185</v>
       </c>
@@ -2445,7 +2702,7 @@
       <c r="H14" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="I14" s="6">
+      <c r="I14" s="8">
         <v>9898505699</v>
       </c>
       <c r="J14" s="4" t="s">
@@ -2455,7 +2712,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" ht="15.75" spans="1:11">
+    <row r="15" spans="1:11">
       <c r="A15" s="3">
         <v>44171.6230902778</v>
       </c>
@@ -2480,7 +2737,7 @@
       <c r="H15" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="I15" s="6">
+      <c r="I15" s="8">
         <v>9727533111</v>
       </c>
       <c r="J15" s="4" t="s">
@@ -2490,7 +2747,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" ht="15.75" spans="1:11">
+    <row r="16" spans="1:11">
       <c r="A16" s="3">
         <v>44171.5246412037</v>
       </c>
@@ -2515,7 +2772,7 @@
       <c r="H16" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="I16" s="6">
+      <c r="I16" s="8">
         <v>8980439031</v>
       </c>
       <c r="J16" s="4" t="s">
@@ -2525,7 +2782,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" ht="15.75" spans="1:11">
+    <row r="17" spans="1:11">
       <c r="A17" s="3">
         <v>44171.5337268518</v>
       </c>
@@ -2548,7 +2805,7 @@
       <c r="H17" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="I17" s="6">
+      <c r="I17" s="8">
         <v>9409157399</v>
       </c>
       <c r="J17" s="4" t="s">
@@ -2558,7 +2815,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" ht="15.75" spans="1:11">
+    <row r="18" spans="1:11">
       <c r="A18" s="3">
         <v>44171.5766435185</v>
       </c>
@@ -2583,7 +2840,7 @@
       <c r="H18" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="I18" s="6">
+      <c r="I18" s="8">
         <v>8128686936</v>
       </c>
       <c r="J18" s="4" t="s">
@@ -2593,7 +2850,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" ht="15.75" spans="1:11">
+    <row r="19" spans="1:11">
       <c r="A19" s="3">
         <v>44171.5830787037</v>
       </c>
@@ -2618,7 +2875,7 @@
       <c r="H19" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="I19" s="6">
+      <c r="I19" s="8">
         <v>7600055849</v>
       </c>
       <c r="J19" s="4" t="s">
@@ -2628,7 +2885,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" ht="15.75" spans="1:11">
+    <row r="20" spans="1:11">
       <c r="A20" s="3">
         <v>44171.4794675926</v>
       </c>
@@ -2653,7 +2910,7 @@
       <c r="H20" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="I20" s="6">
+      <c r="I20" s="8">
         <v>8128687017</v>
       </c>
       <c r="J20" s="4" t="s">
@@ -2663,7 +2920,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" ht="15.75" spans="1:11">
+    <row r="21" spans="1:11">
       <c r="A21" s="3">
         <v>44171.5091550926</v>
       </c>
@@ -2688,7 +2945,7 @@
       <c r="H21" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="I21" s="6">
+      <c r="I21" s="8">
         <v>8128686953</v>
       </c>
       <c r="J21" s="4" t="s">
@@ -2698,7 +2955,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" ht="15.75" spans="1:11">
+    <row r="22" spans="1:11">
       <c r="A22" s="3">
         <v>44171.5416087963</v>
       </c>
@@ -2723,7 +2980,7 @@
       <c r="H22" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="I22" s="6">
+      <c r="I22" s="8">
         <v>9825148064</v>
       </c>
       <c r="J22" s="4" t="s">
@@ -2733,7 +2990,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" ht="15.75" spans="1:11">
+    <row r="23" spans="1:11">
       <c r="A23" s="3">
         <v>44171.4925347222</v>
       </c>
@@ -2758,7 +3015,7 @@
       <c r="H23" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="I23" s="6">
+      <c r="I23" s="8">
         <v>8128686989</v>
       </c>
       <c r="J23" s="4" t="s">
@@ -2768,7 +3025,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24" ht="15.75" spans="1:11">
+    <row r="24" spans="1:11">
       <c r="A24" s="3">
         <v>44171.4986226852</v>
       </c>
@@ -2793,7 +3050,7 @@
       <c r="H24" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="I24" s="6">
+      <c r="I24" s="8">
         <v>7600026483</v>
       </c>
       <c r="J24" s="4" t="s">
@@ -2803,7 +3060,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="25" ht="15.75" spans="1:11">
+    <row r="25" spans="1:11">
       <c r="A25" s="3">
         <v>44171.5173148148</v>
       </c>
@@ -2828,7 +3085,7 @@
       <c r="H25" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="I25" s="6">
+      <c r="I25" s="8">
         <v>8128686945</v>
       </c>
       <c r="J25" s="4" t="s">
@@ -2838,7 +3095,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="26" ht="15.75" spans="1:11">
+    <row r="26" spans="1:11">
       <c r="A26" s="3">
         <v>44171.539525463</v>
       </c>
@@ -2863,7 +3120,7 @@
       <c r="H26" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="I26" s="6">
+      <c r="I26" s="8">
         <v>8128686982</v>
       </c>
       <c r="J26" s="4" t="s">
@@ -2873,7 +3130,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="27" ht="15.75" spans="1:11">
+    <row r="27" spans="1:11">
       <c r="A27" s="3">
         <v>44171.5850578704</v>
       </c>
@@ -2898,7 +3155,7 @@
       <c r="H27" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="I27" s="6">
+      <c r="I27" s="8">
         <v>8128686905</v>
       </c>
       <c r="J27" s="4" t="s">
@@ -2908,7 +3165,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="28" ht="15.75" spans="1:11">
+    <row r="28" spans="1:11">
       <c r="A28" s="3">
         <v>44171.5325</v>
       </c>
@@ -2933,7 +3190,7 @@
       <c r="H28" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="I28" s="6">
+      <c r="I28" s="8">
         <v>7600042102</v>
       </c>
       <c r="J28" s="4" t="s">
@@ -2943,7 +3200,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="29" ht="15.75" spans="1:11">
+    <row r="29" spans="1:11">
       <c r="A29" s="3">
         <v>44171.5441203704</v>
       </c>
@@ -2968,7 +3225,7 @@
       <c r="H29" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="I29" s="6">
+      <c r="I29" s="8">
         <v>8128686918</v>
       </c>
       <c r="J29" s="4" t="s">
@@ -2978,7 +3235,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="30" ht="15.75" spans="1:11">
+    <row r="30" spans="1:11">
       <c r="A30" s="3">
         <v>44171.4961921296</v>
       </c>
@@ -3003,7 +3260,7 @@
       <c r="H30" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="I30" s="6">
+      <c r="I30" s="8">
         <v>8128686981</v>
       </c>
       <c r="J30" s="4" t="s">
@@ -3013,7 +3270,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="31" ht="15.75" spans="1:11">
+    <row r="31" spans="1:11">
       <c r="A31" s="3">
         <v>44171.5731944444</v>
       </c>
@@ -3038,7 +3295,7 @@
       <c r="H31" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="I31" s="6">
+      <c r="I31" s="8">
         <v>7600024929</v>
       </c>
       <c r="J31" s="4" t="s">
@@ -3048,7 +3305,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="32" ht="15.75" spans="1:11">
+    <row r="32" spans="1:11">
       <c r="A32" s="3">
         <v>44171.5236921296</v>
       </c>
@@ -3073,7 +3330,7 @@
       <c r="H32" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="I32" s="6">
+      <c r="I32" s="8">
         <v>9099010023</v>
       </c>
       <c r="J32" s="4" t="s">
@@ -3083,7 +3340,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="33" ht="15.75" spans="1:11">
+    <row r="33" spans="1:11">
       <c r="A33" s="3">
         <v>44171.4698611111</v>
       </c>
@@ -3108,7 +3365,7 @@
       <c r="H33" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="I33" s="6">
+      <c r="I33" s="8">
         <v>7600024922</v>
       </c>
       <c r="J33" s="4" t="s">
@@ -3118,7 +3375,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="34" ht="15.75" spans="1:11">
+    <row r="34" spans="1:11">
       <c r="A34" s="3">
         <v>44171.5130439815</v>
       </c>
@@ -3143,7 +3400,7 @@
       <c r="H34" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="I34" s="6">
+      <c r="I34" s="8">
         <v>7600024906</v>
       </c>
       <c r="J34" s="4" t="s">
@@ -3153,7 +3410,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="35" ht="15.75" spans="1:11">
+    <row r="35" spans="1:11">
       <c r="A35" s="3">
         <v>44171.51125</v>
       </c>
@@ -3178,7 +3435,7 @@
       <c r="H35" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="I35" s="6">
+      <c r="I35" s="8">
         <v>7600026900</v>
       </c>
       <c r="J35" s="4" t="s">
@@ -3188,7 +3445,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="36" ht="15.75" spans="1:11">
+    <row r="36" spans="1:11">
       <c r="A36" s="3">
         <v>44171.567974537</v>
       </c>
@@ -3213,7 +3470,7 @@
       <c r="H36" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="I36" s="6">
+      <c r="I36" s="8">
         <v>7600097019</v>
       </c>
       <c r="J36" s="4" t="s">
@@ -3223,7 +3480,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="37" ht="15.75" spans="1:11">
+    <row r="37" spans="1:11">
       <c r="A37" s="3">
         <v>44171.488900463</v>
       </c>
@@ -3248,7 +3505,7 @@
       <c r="H37" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="I37" s="6">
+      <c r="I37" s="8">
         <v>7600011900</v>
       </c>
       <c r="J37" s="4" t="s">
@@ -3258,7 +3515,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="38" ht="15.75" spans="1:11">
+    <row r="38" spans="1:11">
       <c r="A38" s="3">
         <v>44171.5010648148</v>
       </c>
@@ -3283,7 +3540,7 @@
       <c r="H38" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="I38" s="6">
+      <c r="I38" s="8">
         <v>8128686941</v>
       </c>
       <c r="J38" s="4" t="s">
@@ -3293,7 +3550,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="39" ht="15.75" spans="1:11">
+    <row r="39" spans="1:11">
       <c r="A39" s="3">
         <v>44171.5705324074</v>
       </c>
@@ -3318,7 +3575,7 @@
       <c r="H39" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="I39" s="6">
+      <c r="I39" s="8">
         <v>9925868637</v>
       </c>
       <c r="J39" s="4" t="s">
@@ -3328,7 +3585,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="40" ht="15.75" spans="1:11">
+    <row r="40" spans="1:11">
       <c r="A40" s="3">
         <v>44171.6297800926</v>
       </c>
@@ -3353,7 +3610,7 @@
       <c r="H40" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="I40" s="6">
+      <c r="I40" s="8">
         <v>9099994243</v>
       </c>
       <c r="J40" s="4" t="s">
@@ -3363,7 +3620,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="41" ht="15.75" spans="1:11">
+    <row r="41" spans="1:11">
       <c r="A41" s="3">
         <v>44171.6321412037</v>
       </c>
@@ -3388,7 +3645,7 @@
       <c r="H41" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="I41" s="6">
+      <c r="I41" s="8">
         <v>9824366573</v>
       </c>
       <c r="J41" s="4" t="s">
@@ -3398,7 +3655,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="42" ht="15.75" spans="1:11">
+    <row r="42" spans="1:11">
       <c r="A42" s="3">
         <v>44171.6264236111</v>
       </c>
@@ -3423,7 +3680,7 @@
       <c r="H42" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="I42" s="6">
+      <c r="I42" s="8">
         <v>8128687005</v>
       </c>
       <c r="J42" s="4" t="s">
@@ -3433,7 +3690,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="43" ht="15.75" spans="1:11">
+    <row r="43" spans="1:11">
       <c r="A43" s="3">
         <v>44171.627974537</v>
       </c>
@@ -3458,7 +3715,7 @@
       <c r="H43" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="I43" s="6">
+      <c r="I43" s="8">
         <v>7600026485</v>
       </c>
       <c r="J43" s="4" t="s">
@@ -3468,7 +3725,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="44" ht="15.75" spans="1:11">
+    <row r="44" spans="1:11">
       <c r="A44" s="3">
         <v>44171.0532638889</v>
       </c>
@@ -3493,7 +3750,7 @@
       <c r="H44" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="I44" s="6">
+      <c r="I44" s="8">
         <v>9824422886</v>
       </c>
       <c r="J44" s="4" t="s">
@@ -3503,7 +3760,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="45" ht="15.75" spans="1:11">
+    <row r="45" spans="1:11">
       <c r="A45" s="3">
         <v>44171.4319560185</v>
       </c>
@@ -3528,7 +3785,7 @@
       <c r="H45" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="I45" s="6">
+      <c r="I45" s="8">
         <v>9904228586</v>
       </c>
       <c r="J45" s="4" t="s">
@@ -3538,7 +3795,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="46" ht="15.75" spans="1:11">
+    <row r="46" spans="1:11">
       <c r="A46" s="3">
         <v>44171.5920717593</v>
       </c>
@@ -3563,7 +3820,7 @@
       <c r="H46" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="I46" s="6">
+      <c r="I46" s="8">
         <v>9426890466</v>
       </c>
       <c r="J46" s="4" t="s">
@@ -3573,7 +3830,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="47" ht="15.75" spans="1:11">
+    <row r="47" spans="1:11">
       <c r="A47" s="3">
         <v>44171.5894444444</v>
       </c>
@@ -3598,7 +3855,7 @@
       <c r="H47" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="I47" s="6">
+      <c r="I47" s="8">
         <v>9427834280</v>
       </c>
       <c r="J47" s="4" t="s">
@@ -3608,7 +3865,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="48" ht="15.75" spans="1:11">
+    <row r="48" spans="1:11">
       <c r="A48" s="3">
         <v>44171.5865277778</v>
       </c>
@@ -3633,7 +3890,7 @@
       <c r="H48" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="I48" s="6">
+      <c r="I48" s="8">
         <v>9727744889</v>
       </c>
       <c r="J48" s="4" t="s">
@@ -3643,7 +3900,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="49" ht="15.75" spans="1:11">
+    <row r="49" spans="1:11">
       <c r="A49" s="3">
         <v>44171.6573032407</v>
       </c>
@@ -3668,7 +3925,7 @@
       <c r="H49" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="I49" s="6">
+      <c r="I49" s="8">
         <v>9925499205</v>
       </c>
       <c r="J49" s="4" t="s">
@@ -3678,7 +3935,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="50" ht="15.75" spans="1:11">
+    <row r="50" spans="1:11">
       <c r="A50" s="3">
         <v>44171.6591898148</v>
       </c>
@@ -3703,7 +3960,7 @@
       <c r="H50" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="I50" s="6">
+      <c r="I50" s="8">
         <v>9925097696</v>
       </c>
       <c r="J50" s="4" t="s">
@@ -3713,7 +3970,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="51" ht="15.75" spans="1:11">
+    <row r="51" spans="1:11">
       <c r="A51" s="3">
         <v>44171.655462963</v>
       </c>
@@ -3738,7 +3995,7 @@
       <c r="H51" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="I51" s="6">
+      <c r="I51" s="8">
         <v>7567044496</v>
       </c>
       <c r="J51" s="4" t="s">
@@ -3748,7 +4005,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="52" ht="15.75" spans="1:11">
+    <row r="52" spans="1:11">
       <c r="A52" s="3">
         <v>44171.6122916667</v>
       </c>
@@ -3773,7 +4030,7 @@
       <c r="H52" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="I52" s="6">
+      <c r="I52" s="8">
         <v>9998943334</v>
       </c>
       <c r="J52" s="4" t="s">
@@ -3783,7 +4040,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="53" ht="15.75" spans="1:11">
+    <row r="53" spans="1:11">
       <c r="A53" s="3">
         <v>44171.4100925926</v>
       </c>
@@ -3808,7 +4065,7 @@
       <c r="H53" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="I53" s="6">
+      <c r="I53" s="8">
         <v>9227125641</v>
       </c>
       <c r="J53" s="4" t="s">
@@ -3818,7 +4075,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="54" ht="15.75" spans="1:11">
+    <row r="54" spans="1:11">
       <c r="A54" s="3">
         <v>44171.6640393519</v>
       </c>
@@ -3843,7 +4100,7 @@
       <c r="H54" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="I54" s="7">
+      <c r="I54" s="9">
         <v>9427640576</v>
       </c>
       <c r="J54" s="4" t="s">
@@ -3876,7 +4133,7 @@
       <c r="H55" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="I55" s="7">
+      <c r="I55" s="9">
         <v>9825032080</v>
       </c>
       <c r="J55" s="4" t="s">
@@ -3886,8 +4143,533 @@
         <v>18</v>
       </c>
     </row>
+    <row r="56" ht="15.75" spans="1:11">
+      <c r="A56" s="5">
+        <v>44171.6896412037</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="E56" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="F56" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="G56" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="H56" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="I56" s="6">
+        <v>2612236365</v>
+      </c>
+      <c r="J56" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="K56" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="57" ht="15.75" spans="1:11">
+      <c r="A57" s="5">
+        <v>44171.7015162037</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="E57" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F57" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="G57" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="H57" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="I57" s="10">
+        <v>9825846184</v>
+      </c>
+      <c r="J57" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="K57" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="58" ht="15.75" spans="1:11">
+      <c r="A58" s="5">
+        <v>44171.7028009259</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="E58" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F58" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="G58" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="H58" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="I58" s="10">
+        <v>9510658182</v>
+      </c>
+      <c r="J58" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="K58" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="59" ht="15.75" spans="1:11">
+      <c r="A59" s="5">
+        <v>44171.7039583333</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="E59" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F59" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="G59" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="H59" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="I59" s="10">
+        <v>9722630691</v>
+      </c>
+      <c r="J59" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="K59" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="60" ht="15.75" spans="1:11">
+      <c r="A60" s="5">
+        <v>44171.7050810185</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="E60" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F60" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="G60" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="H60" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="I60" s="10">
+        <v>9998107306</v>
+      </c>
+      <c r="J60" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="K60" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="61" ht="15.75" spans="1:11">
+      <c r="A61" s="5">
+        <v>44171.7063657407</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="E61" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F61" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="G61" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="H61" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="I61" s="10">
+        <v>9998794076</v>
+      </c>
+      <c r="J61" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="K61" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="62" ht="15.75" spans="1:11">
+      <c r="A62" s="5">
+        <v>44171.7077777778</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D62" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="E62" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F62" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="G62" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="H62" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="I62" s="10">
+        <v>9925292390</v>
+      </c>
+      <c r="J62" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="K62" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="63" ht="15.75" spans="1:11">
+      <c r="A63" s="5">
+        <v>44171.7089236111</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="C63" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D63" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="E63" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="F63" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="G63" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="H63" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="I63" s="10">
+        <v>9913772044</v>
+      </c>
+      <c r="J63" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="K63" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="64" ht="15.75" spans="1:11">
+      <c r="A64" s="5">
+        <v>44171.7100925926</v>
+      </c>
+      <c r="B64" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="C64" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D64" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="E64" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="F64" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="G64" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="H64" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="I64" s="10">
+        <v>9725048361</v>
+      </c>
+      <c r="J64" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="K64" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="65" ht="15.75" spans="1:11">
+      <c r="A65" s="5">
+        <v>44171.7113194444</v>
+      </c>
+      <c r="B65" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D65" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="E65" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F65" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="G65" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="H65" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="I65" s="10">
+        <v>9712226888</v>
+      </c>
+      <c r="J65" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="K65" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="66" ht="15.75" spans="1:11">
+      <c r="A66" s="5">
+        <v>44171.7126157407</v>
+      </c>
+      <c r="B66" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="C66" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D66" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="E66" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="F66" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="G66" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="H66" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="I66" s="10">
+        <v>9586853620</v>
+      </c>
+      <c r="J66" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="K66" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="67" ht="15.75" spans="1:11">
+      <c r="A67" s="5">
+        <v>44171.7135069444</v>
+      </c>
+      <c r="B67" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="C67" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D67" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="E67" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F67" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="G67" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="H67" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="I67" s="10">
+        <v>7874844915</v>
+      </c>
+      <c r="J67" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="K67" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="68" ht="15.75" spans="1:11">
+      <c r="A68" s="5">
+        <v>44171.7144328704</v>
+      </c>
+      <c r="B68" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="C68" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D68" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="E68" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F68" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="G68" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="H68" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="I68" s="10">
+        <v>9586748574</v>
+      </c>
+      <c r="J68" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="K68" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="69" ht="15.75" spans="1:11">
+      <c r="A69" s="5">
+        <v>44171.7155324074</v>
+      </c>
+      <c r="B69" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="C69" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D69" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="E69" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F69" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="G69" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="H69" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="I69" s="10">
+        <v>7383918728</v>
+      </c>
+      <c r="J69" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="K69" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="70" ht="15.75" spans="1:11">
+      <c r="A70" s="5">
+        <v>44171.7165509259</v>
+      </c>
+      <c r="B70" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="C70" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D70" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="E70" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F70" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="G70" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="H70" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="I70" s="10">
+        <v>9033180232</v>
+      </c>
+      <c r="J70" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="K70" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:K53">
+  <autoFilter ref="A1:K55">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
